--- a/산출물/등산어때_WBS_1.0_유선영_2024.02.08.xlsx
+++ b/산출물/등산어때_WBS_1.0_유선영_2024.02.08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crown\Desktop\mountain_project\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5B2BA7-2639-4C30-8E61-949A26610F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64948355-F09E-4953-8B33-9F38E3841515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2117,7 +2117,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2418,11 +2418,11 @@
       <c r="G4" s="61"/>
       <c r="H4" s="53">
         <f ca="1">TODAY()</f>
-        <v>45373</v>
+        <v>45379</v>
       </c>
       <c r="I4" s="86">
         <f ca="1">IF(M12&lt;&gt;"-",NETWORKDAYS(M12,TODAY(),data!P14:P16)+1,"종료예정일")</f>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="J4" s="86"/>
       <c r="K4" s="59">
@@ -4158,7 +4158,7 @@
       <c r="J12" s="47"/>
       <c r="K12" s="79">
         <f>IF(OR(COUNTIF(L12:M12,"-")&gt;0,COUNTBLANK(L12:M12)&gt;0),"-",IF(L12&gt;M12,"-",NETWORKDAYS(L12,M12,data!$P$3:$P$10)))</f>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L12" s="44">
         <f>IF(MIN(L13:L148)=0,"-",MIN(L13:L148))</f>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="M12" s="44">
         <f>IF(MAX(M13:M148)=0,"-",MAX(M13:M148))</f>
-        <v>45369</v>
+        <v>45384</v>
       </c>
       <c r="N12" s="102">
         <f>AVERAGE(N22,N29,N37)</f>
@@ -4175,7 +4175,7 @@
       <c r="O12" s="80"/>
       <c r="P12" s="81">
         <f ca="1">IF(OR(M12="-",M12=""),0,IF(OR(ISBLANK(O12),O12="-"),NETWORKDAYS(M12,TODAY(),data!$P$3:$P$10)-1,IF(M12=O12,0,IF(M12&lt;O12,NETWORKDAYS(M12,O12,data!$P$3:$P$10)-1,NETWORKDAYS(M12,O12,data!$P$3:$P$10)+1))))</f>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="S12" s="115" t="str">
         <f t="shared" ref="S12:S18" ca="1" si="0">IF($O12=S$11,"*",IF(AND(COUNTIF($L12:$M12,"-")&lt;1,COUNTBLANK($L12:$M12)&lt;1),IF(AND($L12&lt;=S$11,$M12&gt;=S$11),IF(ISBLANK($D12),"-","."),IF(TODAY()&gt;S$11,"/",IF(TODAY()=S$11,"=",""))),IF(AND(OR(ISBLANK($L12),$L12="-"),OR(ISBLANK($M12),$M12="-")),IF(TODAY()&gt;S$11,"/",IF(TODAY()=S$11,"=","")),IF(OR(ISBLANK($L12),$L12="-"),IF(S$11&lt;=$M12,IF(ISBLANK($D12),"-","."),IF(TODAY()&gt;S$11,"/",IF(TODAY()=S$11,"=",""))),IF(S$11&gt;=$L12,IF(ISBLANK($D12),"-","."),IF(TODAY()&gt;S$11,"/",IF(TODAY()=S$11,"=","")))))))</f>
@@ -4343,47 +4343,47 @@
       </c>
       <c r="BH12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>/</v>
+        <v>-</v>
       </c>
       <c r="BI12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>/</v>
+        <v>-</v>
       </c>
       <c r="BJ12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>/</v>
+        <v>-</v>
       </c>
       <c r="BK12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=</v>
+        <v>-</v>
       </c>
       <c r="BL12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BM12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BN12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BO12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BP12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BQ12" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BR12" s="73" t="str">
         <f t="shared" ref="BQ12:CH33" ca="1" si="2">IF($O12=BR$11,"*",IF(AND(COUNTIF($L12:$M12,"-")&lt;1,COUNTBLANK($L12:$M12)&lt;1),IF(AND($L12&lt;=BR$11,$M12&gt;=BR$11),IF(ISBLANK($D12),"-","."),IF(TODAY()&gt;BR$11,"/",IF(TODAY()=BR$11,"=",""))),IF(AND(OR(ISBLANK($L12),$L12="-"),OR(ISBLANK($M12),$M12="-")),IF(TODAY()&gt;BR$11,"/",IF(TODAY()=BR$11,"=","")),IF(OR(ISBLANK($L12),$L12="-"),IF(BR$11&lt;=$M12,IF(ISBLANK($D12),"-","."),IF(TODAY()&gt;BR$11,"/",IF(TODAY()=BR$11,"=",""))),IF(BR$11&gt;=$L12,IF(ISBLANK($D12),"-","."),IF(TODAY()&gt;BR$11,"/",IF(TODAY()=BR$11,"=","")))))))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BS12" s="73" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4837,23 +4837,23 @@
       </c>
       <c r="BK13" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL13" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM13" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN13" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO13" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP13" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5313,23 +5313,23 @@
       </c>
       <c r="BK14" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL14" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM14" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN14" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO14" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP14" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5789,23 +5789,23 @@
       </c>
       <c r="BK15" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL15" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM15" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN15" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO15" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP15" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6265,23 +6265,23 @@
       </c>
       <c r="BK16" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL16" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM16" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN16" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO16" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP16" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6741,23 +6741,23 @@
       </c>
       <c r="BK17" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL17" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM17" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN17" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO17" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP17" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -7217,23 +7217,23 @@
       </c>
       <c r="BK18" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL18" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM18" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN18" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO18" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP18" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -7693,23 +7693,23 @@
       </c>
       <c r="BK19" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL19" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM19" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN19" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO19" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP19" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -8169,23 +8169,23 @@
       </c>
       <c r="BK20" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL20" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM20" s="73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN20" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO20" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP20" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -8768,23 +8768,23 @@
       </c>
       <c r="BK22" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL22" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM22" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN22" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO22" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP22" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9245,23 +9245,23 @@
       </c>
       <c r="BK23" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL23" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM23" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN23" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO23" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP23" s="73" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9707,23 +9707,23 @@
       </c>
       <c r="BK24" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL24" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM24" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN24" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO24" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP24" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10173,23 +10173,23 @@
       </c>
       <c r="BK25" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL25" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM25" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN25" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO25" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP25" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10650,23 +10650,23 @@
       </c>
       <c r="BK26" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL26" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM26" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN26" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO26" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP26" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -11127,23 +11127,23 @@
       </c>
       <c r="BK27" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL27" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM27" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN27" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO27" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP27" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -11593,23 +11593,23 @@
       </c>
       <c r="BK28" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL28" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM28" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN28" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO28" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP28" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -12070,23 +12070,23 @@
       </c>
       <c r="BK29" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL29" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM29" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN29" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO29" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP29" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -12547,23 +12547,23 @@
       </c>
       <c r="BK30" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL30" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM30" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN30" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO30" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP30" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -13024,23 +13024,23 @@
       </c>
       <c r="BK31" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL31" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM31" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN31" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO31" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP31" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -13319,7 +13319,7 @@
       <c r="O32" s="8"/>
       <c r="P32" s="36">
         <f ca="1">IF(OR(M32="-",M32=""),0,IF(OR(ISBLANK(O32),O32="-"),NETWORKDAYS(M32,TODAY(),data!$P$3:$P$10)-1,IF(M32=O32,0,IF(M32&lt;O32,NETWORKDAYS(M32,O32,data!$P$3:$P$10)-1,NETWORKDAYS(M32,O32,data!$P$3:$P$10)+1))))</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S32" s="115" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -13499,23 +13499,23 @@
       </c>
       <c r="BK32" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL32" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM32" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN32" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO32" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP32" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -13794,7 +13794,7 @@
       <c r="O33" s="8"/>
       <c r="P33" s="36">
         <f ca="1">IF(OR(M33="-",M33=""),0,IF(OR(ISBLANK(O33),O33="-"),NETWORKDAYS(M33,TODAY(),data!$P$3:$P$10)-1,IF(M33=O33,0,IF(M33&lt;O33,NETWORKDAYS(M33,O33,data!$P$3:$P$10)-1,NETWORKDAYS(M33,O33,data!$P$3:$P$10)+1))))</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S33" s="115" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -13974,23 +13974,23 @@
       </c>
       <c r="BK33" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL33" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM33" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN33" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO33" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP33" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -14451,23 +14451,23 @@
       </c>
       <c r="BK34" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL34" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM34" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN34" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO34" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP34" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -14913,23 +14913,23 @@
       </c>
       <c r="BK35" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL35" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM35" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN35" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO35" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP35" s="73" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -15379,23 +15379,23 @@
       </c>
       <c r="BK36" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL36" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM36" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN36" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO36" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP36" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -15856,23 +15856,23 @@
       </c>
       <c r="BK37" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL37" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM37" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN37" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO37" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP37" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -16151,7 +16151,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="36">
         <f ca="1">IF(OR(M38="-",M38=""),0,IF(OR(ISBLANK(O38),O38="-"),NETWORKDAYS(M38,TODAY(),data!$P$3:$P$10)-1,IF(M38=O38,0,IF(M38&lt;O38,NETWORKDAYS(M38,O38,data!$P$3:$P$10)-1,NETWORKDAYS(M38,O38,data!$P$3:$P$10)+1))))</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S38" s="115" t="str">
         <f t="shared" ref="S38:AX38" ca="1" si="31">IF($O38=S$11,"*",IF(AND(COUNTIF($L38:$M38,"-")&lt;1,COUNTBLANK($L38:$M38)&lt;1),IF(AND($L38&lt;=S$11,$M38&gt;=S$11),IF(ISBLANK($D38),"-","."),IF(TODAY()&gt;S$11,"/",IF(TODAY()=S$11,"=",""))),IF(AND(OR(ISBLANK($L38),$L38="-"),OR(ISBLANK($M38),$M38="-")),IF(TODAY()&gt;S$11,"/",IF(TODAY()=S$11,"=","")),IF(OR(ISBLANK($L38),$L38="-"),IF(S$11&lt;=$M38,IF(ISBLANK($D38),"-","."),IF(TODAY()&gt;S$11,"/",IF(TODAY()=S$11,"=",""))),IF(S$11&gt;=$L38,IF(ISBLANK($D38),"-","."),IF(TODAY()&gt;S$11,"/",IF(TODAY()=S$11,"=","")))))))</f>
@@ -16331,23 +16331,23 @@
       </c>
       <c r="BK38" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL38" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM38" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN38" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO38" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP38" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -16808,23 +16808,23 @@
       </c>
       <c r="BK39" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL39" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM39" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN39" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO39" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP39" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -17285,23 +17285,23 @@
       </c>
       <c r="BK40" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL40" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM40" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN40" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO40" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP40" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -17762,23 +17762,23 @@
       </c>
       <c r="BK41" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL41" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM41" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN41" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO41" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP41" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -18224,23 +18224,23 @@
       </c>
       <c r="BK42" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL42" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM42" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN42" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO42" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP42" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -18692,23 +18692,23 @@
       </c>
       <c r="BK43" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL43" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM43" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN43" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO43" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP43" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -18987,7 +18987,7 @@
       <c r="O44" s="8"/>
       <c r="P44" s="36">
         <f ca="1">IF(OR(M44="-",M44=""),0,IF(OR(ISBLANK(O44),O44="-"),NETWORKDAYS(M44,TODAY(),data!$P$3:$P$10)-1,IF(M44=O44,0,IF(M44&lt;O44,NETWORKDAYS(M44,O44,data!$P$3:$P$10)-1,NETWORKDAYS(M44,O44,data!$P$3:$P$10)+1))))</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S44" s="115" t="str">
         <f t="shared" ca="1" si="26"/>
@@ -19167,23 +19167,23 @@
       </c>
       <c r="BK44" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL44" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM44" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN44" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO44" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP44" s="73" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -19629,23 +19629,23 @@
       </c>
       <c r="BK45" s="73" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL45" s="73" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM45" s="73" t="str">
         <f t="shared" ref="AX45:BM62" ca="1" si="37">IF($O45=BM$11,"*",IF(AND(COUNTIF($L45:$M45,"-")&lt;1,COUNTBLANK($L45:$M45)&lt;1),IF(AND($L45&lt;=BM$11,$M45&gt;=BM$11),IF(ISBLANK($D45),"-","."),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=",""))),IF(AND(OR(ISBLANK($L45),$L45="-"),OR(ISBLANK($M45),$M45="-")),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=","")),IF(OR(ISBLANK($L45),$L45="-"),IF(BM$11&lt;=$M45,IF(ISBLANK($D45),"-","."),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=",""))),IF(BM$11&gt;=$L45,IF(ISBLANK($D45),"-","."),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=","")))))))</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN45" s="73" t="str">
         <f t="shared" ref="BN45:CB62" ca="1" si="38">IF($O45=BN$11,"*",IF(AND(COUNTIF($L45:$M45,"-")&lt;1,COUNTBLANK($L45:$M45)&lt;1),IF(AND($L45&lt;=BN$11,$M45&gt;=BN$11),IF(ISBLANK($D45),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=",""))),IF(AND(OR(ISBLANK($L45),$L45="-"),OR(ISBLANK($M45),$M45="-")),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=","")),IF(OR(ISBLANK($L45),$L45="-"),IF(BN$11&lt;=$M45,IF(ISBLANK($D45),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=",""))),IF(BN$11&gt;=$L45,IF(ISBLANK($D45),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=","")))))))</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO45" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP45" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -20095,23 +20095,23 @@
       </c>
       <c r="BK46" s="73" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL46" s="73" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM46" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN46" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO46" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP46" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -20393,7 +20393,7 @@
       </c>
       <c r="P47" s="36">
         <f ca="1">IF(OR(M47="-",M47=""),0,IF(OR(ISBLANK(O47),O47="-"),NETWORKDAYS(M47,TODAY(),data!$P$3:$P$10)-1,IF(M47=O47,0,IF(M47&lt;O47,NETWORKDAYS(M47,O47,data!$P$3:$P$10)-1,NETWORKDAYS(M47,O47,data!$P$3:$P$10)+1))))</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S47" s="115" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -20573,23 +20573,23 @@
       </c>
       <c r="BK47" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL47" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM47" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN47" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO47" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP47" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -20868,7 +20868,7 @@
       <c r="O48" s="8"/>
       <c r="P48" s="36">
         <f ca="1">IF(OR(M48="-",M48=""),0,IF(OR(ISBLANK(O48),O48="-"),NETWORKDAYS(M48,TODAY(),data!$P$3:$P$10)-1,IF(M48=O48,0,IF(M48&lt;O48,NETWORKDAYS(M48,O48,data!$P$3:$P$10)-1,NETWORKDAYS(M48,O48,data!$P$3:$P$10)+1))))</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S48" s="115" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -21048,23 +21048,23 @@
       </c>
       <c r="BK48" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL48" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM48" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN48" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO48" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP48" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -21343,7 +21343,7 @@
       <c r="O49" s="8"/>
       <c r="P49" s="36">
         <f ca="1">IF(OR(M49="-",M49=""),0,IF(OR(ISBLANK(O49),O49="-"),NETWORKDAYS(M49,TODAY(),data!$P$3:$P$10)-1,IF(M49=O49,0,IF(M49&lt;O49,NETWORKDAYS(M49,O49,data!$P$3:$P$10)-1,NETWORKDAYS(M49,O49,data!$P$3:$P$10)+1))))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S49" s="115" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -21523,23 +21523,23 @@
       </c>
       <c r="BK49" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL49" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM49" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN49" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO49" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP49" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -21985,23 +21985,23 @@
       </c>
       <c r="BK50" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL50" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM50" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN50" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO50" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP50" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -22451,23 +22451,23 @@
       </c>
       <c r="BK51" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL51" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM51" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN51" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO51" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP51" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -22746,7 +22746,7 @@
       <c r="O52" s="8"/>
       <c r="P52" s="36">
         <f ca="1">IF(OR(M52="-",M52=""),0,IF(OR(ISBLANK(O52),O52="-"),NETWORKDAYS(M52,TODAY(),data!$P$3:$P$10)-1,IF(M52=O52,0,IF(M52&lt;O52,NETWORKDAYS(M52,O52,data!$P$3:$P$10)-1,NETWORKDAYS(M52,O52,data!$P$3:$P$10)+1))))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S52" s="115" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -22926,23 +22926,23 @@
       </c>
       <c r="BK52" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL52" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM52" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN52" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO52" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP52" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -23224,7 +23224,7 @@
       </c>
       <c r="P53" s="36">
         <f ca="1">IF(OR(M53="-",M53=""),0,IF(OR(ISBLANK(O53),O53="-"),NETWORKDAYS(M53,TODAY(),data!$P$3:$P$10)-1,IF(M53=O53,0,IF(M53&lt;O53,NETWORKDAYS(M53,O53,data!$P$3:$P$10)-1,NETWORKDAYS(M53,O53,data!$P$3:$P$10)+1))))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S53" s="115" t="str">
         <f t="shared" ca="1" si="46"/>
@@ -23404,23 +23404,23 @@
       </c>
       <c r="BK53" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL53" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM53" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN53" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO53" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP53" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -23699,7 +23699,7 @@
       <c r="O54" s="8"/>
       <c r="P54" s="36">
         <f ca="1">IF(OR(M54="-",M54=""),0,IF(OR(ISBLANK(O54),O54="-"),NETWORKDAYS(M54,TODAY(),data!$P$3:$P$10)-1,IF(M54=O54,0,IF(M54&lt;O54,NETWORKDAYS(M54,O54,data!$P$3:$P$10)-1,NETWORKDAYS(M54,O54,data!$P$3:$P$10)+1))))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S54" s="115" t="str">
         <f t="shared" ca="1" si="46"/>
@@ -23879,23 +23879,23 @@
       </c>
       <c r="BK54" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL54" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM54" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN54" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO54" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP54" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -24474,23 +24474,23 @@
       </c>
       <c r="BK56" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL56" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM56" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN56" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO56" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP56" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -24951,23 +24951,23 @@
       </c>
       <c r="BK57" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL57" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM57" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN57" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO57" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP57" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -25415,23 +25415,23 @@
       </c>
       <c r="BK58" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL58" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM58" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN58" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO58" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP58" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -25696,7 +25696,7 @@
       <c r="I59" s="90"/>
       <c r="J59" s="90"/>
       <c r="K59" s="79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
@@ -25883,23 +25883,23 @@
       </c>
       <c r="BK59" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL59" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM59" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN59" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO59" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP59" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -26164,17 +26164,23 @@
       <c r="I60" s="92"/>
       <c r="J60" s="92"/>
       <c r="K60" s="7">
-        <v>3</v>
-      </c>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="L60" s="8">
+        <v>45376</v>
+      </c>
+      <c r="M60" s="8">
+        <v>45380</v>
+      </c>
       <c r="N60" s="104">
         <v>0</v>
       </c>
-      <c r="O60" s="8"/>
+      <c r="O60" s="8">
+        <v>45379</v>
+      </c>
       <c r="P60" s="36">
         <f ca="1">IF(OR(M60="-",M60=""),0,IF(OR(ISBLANK(O60),O60="-"),NETWORKDAYS(M60,TODAY(),data!$P$3:$P$10)-1,IF(M60=O60,0,IF(M60&lt;O60,NETWORKDAYS(M60,O60,data!$P$3:$P$10)-1,NETWORKDAYS(M60,O60,data!$P$3:$P$10)+1))))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S60" s="115" t="str">
         <f t="shared" ca="1" si="46"/>
@@ -26354,27 +26360,27 @@
       </c>
       <c r="BK60" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL60" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BM60" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BN60" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BO60" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>*</v>
       </c>
       <c r="BP60" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="BQ60" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -26818,23 +26824,23 @@
       </c>
       <c r="BK61" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL61" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM61" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN61" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO61" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP61" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -27286,23 +27292,23 @@
       </c>
       <c r="BK62" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL62" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM62" s="73" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN62" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO62" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP62" s="73" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -27569,12 +27575,18 @@
       <c r="K63" s="7">
         <v>1</v>
       </c>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
+      <c r="L63" s="8">
+        <v>45384</v>
+      </c>
+      <c r="M63" s="8">
+        <v>45384</v>
+      </c>
       <c r="N63" s="104">
         <v>0</v>
       </c>
-      <c r="O63" s="8"/>
+      <c r="O63" s="8">
+        <v>45384</v>
+      </c>
       <c r="P63" s="36">
         <f ca="1">IF(OR(M63="-",M63=""),0,IF(OR(ISBLANK(O63),O63="-"),NETWORKDAYS(M63,TODAY(),data!$P$3:$P$10)-1,IF(M63=O63,0,IF(M63&lt;O63,NETWORKDAYS(M63,O63,data!$P$3:$P$10)-1,NETWORKDAYS(M63,O63,data!$P$3:$P$10)+1))))</f>
         <v>0</v>
@@ -27757,23 +27769,23 @@
       </c>
       <c r="BK63" s="73" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL63" s="73" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM63" s="73" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN63" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO63" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP63" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
@@ -27785,7 +27797,7 @@
       </c>
       <c r="BR63" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v/>
+        <v>*</v>
       </c>
       <c r="BS63" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
@@ -28221,23 +28233,23 @@
       </c>
       <c r="BK64" s="73" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL64" s="73" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM64" s="73" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN64" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO64" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP64" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
@@ -28685,23 +28697,23 @@
       </c>
       <c r="BK65" s="73" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL65" s="73" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM65" s="73" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN65" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO65" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP65" s="73" t="str">
         <f t="shared" ca="1" si="51"/>
@@ -29153,23 +29165,23 @@
       </c>
       <c r="BK66" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL66" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM66" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN66" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO66" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP66" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
@@ -29621,23 +29633,23 @@
       </c>
       <c r="BK67" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL67" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM67" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN67" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO67" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP67" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
@@ -30089,23 +30101,23 @@
       </c>
       <c r="BK68" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL68" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM68" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN68" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO68" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP68" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
@@ -30557,23 +30569,23 @@
       </c>
       <c r="BK69" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL69" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM69" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN69" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO69" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP69" s="73" t="str">
         <f t="shared" ca="1" si="59"/>
@@ -31025,23 +31037,23 @@
       </c>
       <c r="BK70" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL70" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM70" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN70" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO70" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP70" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -31493,23 +31505,23 @@
       </c>
       <c r="BK71" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL71" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM71" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN71" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO71" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP71" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -31961,23 +31973,23 @@
       </c>
       <c r="BK72" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL72" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM72" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN72" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO72" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP72" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -32429,23 +32441,23 @@
       </c>
       <c r="BK73" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL73" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM73" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN73" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO73" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP73" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -32897,23 +32909,23 @@
       </c>
       <c r="BK74" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL74" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM74" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN74" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO74" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP74" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -33365,23 +33377,23 @@
       </c>
       <c r="BK75" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL75" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM75" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN75" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO75" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP75" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -33833,23 +33845,23 @@
       </c>
       <c r="BK76" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL76" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM76" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN76" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO76" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP76" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -34301,23 +34313,23 @@
       </c>
       <c r="BK77" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL77" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM77" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN77" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO77" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP77" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -34769,23 +34781,23 @@
       </c>
       <c r="BK78" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL78" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM78" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN78" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO78" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP78" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -35237,23 +35249,23 @@
       </c>
       <c r="BK79" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL79" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM79" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN79" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO79" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP79" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -35705,23 +35717,23 @@
       </c>
       <c r="BK80" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL80" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM80" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN80" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO80" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP80" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -36173,23 +36185,23 @@
       </c>
       <c r="BK81" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL81" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM81" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN81" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO81" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP81" s="73" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -36641,23 +36653,23 @@
       </c>
       <c r="BK82" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL82" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM82" s="73" t="str">
         <f t="shared" ref="BM82:BM92" ca="1" si="76">IF($O82=BM$11,"*",IF(AND(COUNTIF($L82:$M82,"-")&lt;1,COUNTBLANK($L82:$M82)&lt;1),IF(AND($L82&lt;=BM$11,$M82&gt;=BM$11),IF(ISBLANK($D82),"-","."),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=",""))),IF(AND(OR(ISBLANK($L82),$L82="-"),OR(ISBLANK($M82),$M82="-")),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=","")),IF(OR(ISBLANK($L82),$L82="-"),IF(BM$11&lt;=$M82,IF(ISBLANK($D82),"-","."),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=",""))),IF(BM$11&gt;=$L82,IF(ISBLANK($D82),"-","."),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=","")))))))</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN82" s="73" t="str">
         <f t="shared" ref="BN82:BP92" ca="1" si="77">IF($O82=BN$11,"*",IF(AND(COUNTIF($L82:$M82,"-")&lt;1,COUNTBLANK($L82:$M82)&lt;1),IF(AND($L82&lt;=BN$11,$M82&gt;=BN$11),IF(ISBLANK($D82),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=",""))),IF(AND(OR(ISBLANK($L82),$L82="-"),OR(ISBLANK($M82),$M82="-")),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=","")),IF(OR(ISBLANK($L82),$L82="-"),IF(BN$11&lt;=$M82,IF(ISBLANK($D82),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=",""))),IF(BN$11&gt;=$L82,IF(ISBLANK($D82),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=","")))))))</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO82" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP82" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -37109,23 +37121,23 @@
       </c>
       <c r="BK83" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL83" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM83" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN83" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO83" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP83" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -37577,23 +37589,23 @@
       </c>
       <c r="BK84" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL84" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM84" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN84" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO84" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP84" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -38045,23 +38057,23 @@
       </c>
       <c r="BK85" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL85" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM85" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN85" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO85" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP85" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -38513,23 +38525,23 @@
       </c>
       <c r="BK86" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL86" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM86" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN86" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO86" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP86" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -38981,23 +38993,23 @@
       </c>
       <c r="BK87" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL87" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM87" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN87" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO87" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP87" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -39449,23 +39461,23 @@
       </c>
       <c r="BK88" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL88" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM88" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN88" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO88" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP88" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -39917,23 +39929,23 @@
       </c>
       <c r="BK89" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL89" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM89" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN89" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO89" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP89" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -40382,23 +40394,23 @@
       </c>
       <c r="BK90" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL90" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM90" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN90" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO90" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP90" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -40850,23 +40862,23 @@
       </c>
       <c r="BK91" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL91" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM91" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN91" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO91" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP91" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -41318,23 +41330,23 @@
       </c>
       <c r="BK92" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL92" s="73" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM92" s="73" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN92" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO92" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP92" s="73" t="str">
         <f t="shared" ca="1" si="77"/>
@@ -41786,23 +41798,23 @@
       </c>
       <c r="BK93" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL93" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM93" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN93" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO93" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP93" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
@@ -42254,23 +42266,23 @@
       </c>
       <c r="BK94" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL94" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM94" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN94" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO94" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP94" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
@@ -42722,23 +42734,23 @@
       </c>
       <c r="BK95" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL95" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM95" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN95" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO95" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP95" s="73" t="str">
         <f t="shared" ca="1" si="92"/>
@@ -43190,23 +43202,23 @@
       </c>
       <c r="BK96" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL96" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM96" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN96" s="73" t="str">
         <f t="shared" ref="BN96:BP115" ca="1" si="94">IF($O96=BN$11,"*",IF(AND(COUNTIF($L96:$M96,"-")&lt;1,COUNTBLANK($L96:$M96)&lt;1),IF(AND($L96&lt;=BN$11,$M96&gt;=BN$11),IF(ISBLANK($D96),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=",""))),IF(AND(OR(ISBLANK($L96),$L96="-"),OR(ISBLANK($M96),$M96="-")),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=","")),IF(OR(ISBLANK($L96),$L96="-"),IF(BN$11&lt;=$M96,IF(ISBLANK($D96),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=",""))),IF(BN$11&gt;=$L96,IF(ISBLANK($D96),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=","")))))))</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO96" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP96" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -43658,23 +43670,23 @@
       </c>
       <c r="BK97" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL97" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM97" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN97" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO97" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP97" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -44126,23 +44138,23 @@
       </c>
       <c r="BK98" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL98" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM98" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN98" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO98" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP98" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -44594,23 +44606,23 @@
       </c>
       <c r="BK99" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL99" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM99" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN99" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO99" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP99" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -45062,23 +45074,23 @@
       </c>
       <c r="BK100" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL100" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM100" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN100" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO100" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP100" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -45530,23 +45542,23 @@
       </c>
       <c r="BK101" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL101" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM101" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN101" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO101" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP101" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -45998,23 +46010,23 @@
       </c>
       <c r="BK102" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL102" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM102" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN102" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO102" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP102" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -46466,23 +46478,23 @@
       </c>
       <c r="BK103" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL103" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM103" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN103" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO103" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP103" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -46934,23 +46946,23 @@
       </c>
       <c r="BK104" s="73" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL104" s="73" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM104" s="73" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN104" s="73" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO104" s="73" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP104" s="73" t="str">
         <f t="shared" ca="1" si="106"/>
@@ -47402,23 +47414,23 @@
       </c>
       <c r="BK105" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL105" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM105" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN105" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO105" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP105" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -47870,23 +47882,23 @@
       </c>
       <c r="BK106" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL106" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM106" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN106" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO106" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP106" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -48338,23 +48350,23 @@
       </c>
       <c r="BK107" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL107" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM107" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN107" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO107" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP107" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -48806,23 +48818,23 @@
       </c>
       <c r="BK108" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL108" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM108" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN108" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO108" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP108" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -49274,23 +49286,23 @@
       </c>
       <c r="BK109" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL109" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM109" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN109" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO109" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP109" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -49742,23 +49754,23 @@
       </c>
       <c r="BK110" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL110" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM110" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN110" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO110" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP110" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -50210,23 +50222,23 @@
       </c>
       <c r="BK111" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL111" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM111" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN111" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO111" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP111" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -50678,23 +50690,23 @@
       </c>
       <c r="BK112" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL112" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM112" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN112" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO112" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP112" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -51146,23 +51158,23 @@
       </c>
       <c r="BK113" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL113" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM113" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN113" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO113" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP113" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -51614,23 +51626,23 @@
       </c>
       <c r="BK114" s="73" t="str">
         <f t="shared" ca="1" si="110"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL114" s="73" t="str">
         <f t="shared" ca="1" si="110"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM114" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN114" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO114" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP114" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -52082,23 +52094,23 @@
       </c>
       <c r="BK115" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL115" s="73" t="str">
         <f t="shared" ca="1" si="98"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM115" s="73" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN115" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO115" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP115" s="73" t="str">
         <f t="shared" ca="1" si="94"/>
@@ -52550,23 +52562,23 @@
       </c>
       <c r="BK116" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL116" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM116" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN116" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO116" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP116" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -53018,23 +53030,23 @@
       </c>
       <c r="BK117" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL117" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM117" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN117" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO117" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP117" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -53486,23 +53498,23 @@
       </c>
       <c r="BK118" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL118" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM118" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN118" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO118" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP118" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -53954,23 +53966,23 @@
       </c>
       <c r="BK119" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL119" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM119" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN119" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO119" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP119" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -54422,23 +54434,23 @@
       </c>
       <c r="BK120" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL120" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM120" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN120" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO120" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP120" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -54890,23 +54902,23 @@
       </c>
       <c r="BK121" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL121" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM121" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN121" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO121" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP121" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -55358,23 +55370,23 @@
       </c>
       <c r="BK122" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL122" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM122" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN122" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO122" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP122" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -55826,23 +55838,23 @@
       </c>
       <c r="BK123" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL123" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM123" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN123" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO123" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP123" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -56294,23 +56306,23 @@
       </c>
       <c r="BK124" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL124" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM124" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN124" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO124" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP124" s="73" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -56762,23 +56774,23 @@
       </c>
       <c r="BK125" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL125" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM125" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN125" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO125" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP125" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
@@ -57230,23 +57242,23 @@
       </c>
       <c r="BK126" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL126" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM126" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN126" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO126" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP126" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
@@ -57698,23 +57710,23 @@
       </c>
       <c r="BK127" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL127" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM127" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN127" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO127" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP127" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
@@ -58166,23 +58178,23 @@
       </c>
       <c r="BK128" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL128" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM128" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN128" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO128" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP128" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
@@ -58634,23 +58646,23 @@
       </c>
       <c r="BK129" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL129" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM129" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN129" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO129" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP129" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
@@ -59102,23 +59114,23 @@
       </c>
       <c r="BK130" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL130" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM130" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN130" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO130" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP130" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
@@ -59570,23 +59582,23 @@
       </c>
       <c r="BK131" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL131" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM131" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN131" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO131" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP131" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
@@ -60038,23 +60050,23 @@
       </c>
       <c r="BK132" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL132" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM132" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN132" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO132" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP132" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
@@ -60506,23 +60518,23 @@
       </c>
       <c r="BK133" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL133" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM133" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN133" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO133" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP133" s="73" t="str">
         <f t="shared" ca="1" si="126"/>
@@ -60971,23 +60983,23 @@
       </c>
       <c r="BK134" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL134" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM134" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN134" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO134" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP134" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
@@ -61436,23 +61448,23 @@
       </c>
       <c r="BK135" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL135" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM135" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN135" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO135" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP135" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
@@ -61904,23 +61916,23 @@
       </c>
       <c r="BK136" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL136" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM136" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN136" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO136" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP136" s="73" t="str">
         <f t="shared" ca="1" si="136"/>
@@ -62368,23 +62380,23 @@
       </c>
       <c r="BK137" s="73" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL137" s="73" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM137" s="73" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN137" s="73" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO137" s="73" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP137" s="73" t="str">
         <f t="shared" ca="1" si="143"/>
@@ -62832,23 +62844,23 @@
       </c>
       <c r="BK138" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL138" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM138" s="73" t="str">
         <f t="shared" ref="BM138:BM142" ca="1" si="146">IF($O138=BM$11,"*",IF(AND(COUNTIF($L138:$M138,"-")&lt;1,COUNTBLANK($L138:$M138)&lt;1),IF(AND($L138&lt;=BM$11,$M138&gt;=BM$11),IF(ISBLANK($D138),"-","."),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=",""))),IF(AND(OR(ISBLANK($L138),$L138="-"),OR(ISBLANK($M138),$M138="-")),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=","")),IF(OR(ISBLANK($L138),$L138="-"),IF(BM$11&lt;=$M138,IF(ISBLANK($D138),"-","."),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=",""))),IF(BM$11&gt;=$L138,IF(ISBLANK($D138),"-","."),IF(TODAY()&gt;BM$11,"/",IF(TODAY()=BM$11,"=","")))))))</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN138" s="73" t="str">
         <f t="shared" ref="BN138:BP142" ca="1" si="147">IF($O138=BN$11,"*",IF(AND(COUNTIF($L138:$M138,"-")&lt;1,COUNTBLANK($L138:$M138)&lt;1),IF(AND($L138&lt;=BN$11,$M138&gt;=BN$11),IF(ISBLANK($D138),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=",""))),IF(AND(OR(ISBLANK($L138),$L138="-"),OR(ISBLANK($M138),$M138="-")),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=","")),IF(OR(ISBLANK($L138),$L138="-"),IF(BN$11&lt;=$M138,IF(ISBLANK($D138),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=",""))),IF(BN$11&gt;=$L138,IF(ISBLANK($D138),"-","."),IF(TODAY()&gt;BN$11,"/",IF(TODAY()=BN$11,"=","")))))))</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO138" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP138" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
@@ -63300,23 +63312,23 @@
       </c>
       <c r="BK139" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL139" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM139" s="73" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN139" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO139" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP139" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
@@ -63768,23 +63780,23 @@
       </c>
       <c r="BK140" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL140" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM140" s="73" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN140" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO140" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP140" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
@@ -64236,23 +64248,23 @@
       </c>
       <c r="BK141" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL141" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM141" s="73" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN141" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO141" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP141" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
@@ -64704,23 +64716,23 @@
       </c>
       <c r="BK142" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL142" s="73" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM142" s="73" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN142" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO142" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP142" s="73" t="str">
         <f t="shared" ca="1" si="147"/>
@@ -65172,23 +65184,23 @@
       </c>
       <c r="BK143" s="73" t="str">
         <f t="shared" ca="1" si="154"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL143" s="73" t="str">
         <f t="shared" ca="1" si="154"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM143" s="73" t="str">
         <f t="shared" ca="1" si="154"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN143" s="73" t="str">
         <f t="shared" ca="1" si="154"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO143" s="73" t="str">
         <f t="shared" ca="1" si="154"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP143" s="73" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -65636,23 +65648,23 @@
       </c>
       <c r="BK144" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL144" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM144" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN144" s="73" t="str">
         <f t="shared" ca="1" si="154"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO144" s="73" t="str">
         <f t="shared" ca="1" si="154"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP144" s="73" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -66104,23 +66116,23 @@
       </c>
       <c r="BK145" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL145" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM145" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN145" s="73" t="str">
         <f t="shared" ca="1" si="163"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO145" s="73" t="str">
         <f t="shared" ca="1" si="163"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP145" s="73" t="str">
         <f t="shared" ca="1" si="163"/>
@@ -66572,23 +66584,23 @@
       </c>
       <c r="BK146" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL146" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM146" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN146" s="73" t="str">
         <f t="shared" ca="1" si="163"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO146" s="73" t="str">
         <f t="shared" ca="1" si="163"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP146" s="73" t="str">
         <f t="shared" ca="1" si="163"/>
@@ -67040,23 +67052,23 @@
       </c>
       <c r="BK147" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL147" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM147" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN147" s="73" t="str">
         <f t="shared" ca="1" si="163"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO147" s="73" t="str">
         <f t="shared" ca="1" si="163"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP147" s="73" t="str">
         <f t="shared" ca="1" si="163"/>
@@ -67504,23 +67516,23 @@
       </c>
       <c r="BK148" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL148" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM148" s="73" t="str">
         <f t="shared" ca="1" si="168"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN148" s="73" t="str">
         <f t="shared" ca="1" si="168"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO148" s="73" t="str">
         <f t="shared" ca="1" si="168"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP148" s="73" t="str">
         <f t="shared" ca="1" si="168"/>
@@ -67968,23 +67980,23 @@
       </c>
       <c r="BK149" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>=</v>
+        <v>/</v>
       </c>
       <c r="BL149" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BM149" s="73" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BN149" s="73" t="str">
         <f t="shared" ca="1" si="168"/>
-        <v/>
+        <v>/</v>
       </c>
       <c r="BO149" s="73" t="str">
         <f t="shared" ca="1" si="168"/>
-        <v/>
+        <v>=</v>
       </c>
       <c r="BP149" s="73" t="str">
         <f t="shared" ca="1" si="168"/>
@@ -68247,7 +68259,7 @@
       <c r="J150" s="94"/>
       <c r="K150" s="27">
         <f>SUM(K28:K149)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L150" s="28">
         <f>IF(MIN(L28:L149)=0,"-",MIN(L28:L149))</f>
@@ -68255,12 +68267,12 @@
       </c>
       <c r="M150" s="29">
         <f>MAX(M28:M149)</f>
-        <v>45369</v>
+        <v>45384</v>
       </c>
       <c r="N150" s="106"/>
       <c r="O150" s="29">
         <f>MAX(O28:O149)</f>
-        <v>45370</v>
+        <v>45384</v>
       </c>
       <c r="P150" s="30"/>
       <c r="S150" s="116">
@@ -68445,15 +68457,15 @@
       </c>
       <c r="BL150" s="38">
         <f t="shared" ca="1" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM150" s="38">
         <f t="shared" ca="1" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN150" s="38">
         <f t="shared" ca="1" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO150" s="38">
         <f t="shared" ca="1" si="171"/>
@@ -68461,7 +68473,7 @@
       </c>
       <c r="BP150" s="38">
         <f t="shared" ca="1" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ150" s="38">
         <f t="shared" ca="1" si="171"/>
@@ -68906,15 +68918,15 @@
       </c>
       <c r="BL151" s="38">
         <f t="shared" ref="BL151:BX151" ca="1" si="177">IF(BL150&lt;&gt;0,1/BL150,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM151" s="38">
         <f t="shared" ca="1" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN151" s="38">
         <f t="shared" ca="1" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO151" s="38">
         <f t="shared" ca="1" si="177"/>
@@ -68922,7 +68934,7 @@
       </c>
       <c r="BP151" s="38">
         <f t="shared" ca="1" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ151" s="38">
         <f t="shared" ca="1" si="177"/>
